--- a/doc/account information.xlsx
+++ b/doc/account information.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="133">
   <si>
     <t>Service Provider</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Acpwfaca2017?</t>
   </si>
   <si>
-    <t>justarandompassword</t>
-  </si>
-  <si>
     <t>crazyp0506</t>
   </si>
   <si>
@@ -368,12 +365,72 @@
   </si>
   <si>
     <t>favourite sports, supporting teams</t>
+  </si>
+  <si>
+    <t>imperial</t>
+  </si>
+  <si>
+    <t>cp9914</t>
+  </si>
+  <si>
+    <t>1CPpffICL33?</t>
+  </si>
+  <si>
+    <t>imperial1</t>
+  </si>
+  <si>
+    <t>username, cid, birthday, mobile</t>
+  </si>
+  <si>
+    <t>name, birthday, address</t>
+  </si>
+  <si>
+    <t>overleaf</t>
+  </si>
+  <si>
+    <t>Justarandompassw0rd.</t>
+  </si>
+  <si>
+    <t>overleaf1</t>
+  </si>
+  <si>
+    <t>name, university</t>
+  </si>
+  <si>
+    <t>disqus</t>
+  </si>
+  <si>
+    <t>IdqwevI1t.</t>
+  </si>
+  <si>
+    <t>disqus1</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>github1</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>baidu</t>
+  </si>
+  <si>
+    <t>TimBDpwf119!</t>
+  </si>
+  <si>
+    <t>baidu1</t>
+  </si>
+  <si>
+    <t>name, birthday, location, mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,11 +481,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,6 +580,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +632,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -736,13 +828,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -756,10 +848,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -773,10 +865,10 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -790,10 +882,10 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -807,10 +899,10 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -824,10 +916,10 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -841,10 +933,10 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -858,10 +950,10 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -875,10 +967,10 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -892,10 +984,10 @@
         <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -906,13 +998,13 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -923,13 +1015,13 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -940,13 +1032,13 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -960,10 +1052,10 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -977,10 +1069,10 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -994,10 +1086,10 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1011,10 +1103,10 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1025,13 +1117,13 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1042,13 +1134,13 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1059,13 +1151,13 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1076,13 +1168,13 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1096,10 +1188,10 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1110,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1130,10 +1222,10 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1144,13 +1236,13 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
         <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1158,16 +1250,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1178,13 +1270,13 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1195,13 +1287,13 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1212,13 +1304,13 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1229,16 +1321,16 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
-      </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1249,12 +1341,549 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.05078125" customWidth="1"/>
+    <col min="2" max="2" width="26.47265625" customWidth="1"/>
+    <col min="3" max="3" width="20.578125" customWidth="1"/>
+    <col min="4" max="4" width="21.83984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1264,414 +1893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="14.05078125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.578125" customWidth="1"/>
-    <col min="4" max="4" width="21.83984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F5:F25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1683,274 +1910,315 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>